--- a/SegundoTesteAlgoritmo.xlsx
+++ b/SegundoTesteAlgoritmo.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Antecedente </t>
   </si>
@@ -563,11 +563,143 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>O  cliente chamou o vendedor enquanto </t>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maria conversava com Ana enquanto</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cozinhava.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A mãe dá um beijo na filha enquanto </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> veste o casaco. </t>
+    </r>
+  </si>
+  <si>
+    <t>mãe</t>
+  </si>
+  <si>
+    <t>filha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A Emília acenou para a Teresa quando </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> abriu a porta.</t>
+    </r>
+  </si>
+  <si>
+    <t>Emília</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Lucas humilhou Gustavo e</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> chorou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Gustavo foi humilhado por lucas e </t>
     </r>
     <r>
       <rPr>
@@ -586,239 +718,113 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> pagava a conta</t>
+      <t> chorou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A amiga foi recebida por Maria em </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> casa</t>
+    </r>
+  </si>
+  <si>
+    <t>amiga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A irmã da médica comentou que </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> estava cansada. </t>
+    </r>
+  </si>
+  <si>
+    <t>irmã</t>
+  </si>
+  <si>
+    <t>médica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>O cliente chamava o frentista enquanto </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> pagava a conta no posto</t>
     </r>
   </si>
   <si>
     <t>cliente</t>
   </si>
   <si>
-    <t>vendedor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Luíza abraçou a filha quando</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> votou pra casa </t>
-    </r>
-  </si>
-  <si>
-    <t>Luíza</t>
-  </si>
-  <si>
-    <t>filha</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A Maria recebeu a amiga em </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> casa</t>
-    </r>
-  </si>
-  <si>
-    <t>amiga</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Lucas humilhou Gustavo e</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> chorou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Gustavo foi humilhado por lucas e </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> chorou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A amiga foi recebida por Maria em </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> casa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>O ladrão roubou Lucas e </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> levou todo o dinheiro</t>
-    </r>
-  </si>
-  <si>
-    <t>ladrão</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Maria recebeu de Marcela, um celular no </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>seu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> aniversário.</t>
-    </r>
-  </si>
-  <si>
-    <t>Marcela</t>
+    <t>frentista</t>
   </si>
 </sst>
 </file>
@@ -828,12 +834,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -859,6 +864,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -877,6 +888,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -946,7 +970,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,19 +991,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,7 +1011,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,7 +1019,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1078,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1329,58 +1361,58 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>43</v>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1390,7 +1422,7 @@
     </row>
     <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
@@ -1399,19 +1431,19 @@
         <v>27</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -1422,29 +1454,29 @@
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -1463,7 +1495,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/SegundoTesteAlgoritmo.xlsx
+++ b/SegundoTesteAlgoritmo.xlsx
@@ -5,22 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
   <si>
     <t>Antecedente </t>
   </si>
@@ -563,6 +565,340 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>O  cliente chamou o vendedor enquanto </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> pagava a conta</t>
+    </r>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>vendedor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Luíza abraçou a filha quando</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> votou pra casa </t>
+    </r>
+  </si>
+  <si>
+    <t>Luíza</t>
+  </si>
+  <si>
+    <t>filha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A Maria recebeu a amiga em </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> casa</t>
+    </r>
+  </si>
+  <si>
+    <t>amiga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Lucas humilhou Gustavo e</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> chorou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Gustavo foi humilhado por lucas e </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> chorou</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A amiga foi recebida por Maria em </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>sua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> casa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>O ladrão roubou Lucas e </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> levou todo o dinheiro</t>
+    </r>
+  </si>
+  <si>
+    <t>ladrão</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Maria recebeu de Marcela, um celular no </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>seu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> aniversário.</t>
+    </r>
+  </si>
+  <si>
+    <t>Marcela</t>
+  </si>
+  <si>
+    <t> Maria conversava com Ana enquanto ela cozinhava.
+</t>
+  </si>
+  <si>
+    <t> A mãe dá um beijo na filha enquanto ela veste o casaco. </t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>A Emilia acenou para a Teresa quando ela abriu a porta.</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t> A Telma conversava com a Julia enquanto ela cozinhava. </t>
+  </si>
+  <si>
+    <t>Telma</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t> O cliente chamava o frentista enquanto ele pagava a conta no posto</t>
+  </si>
+  <si>
+    <t>frentista</t>
+  </si>
+  <si>
+    <t>A irmã da médica comentou que ela estava cansada. </t>
+  </si>
+  <si>
+    <t>irmã</t>
+  </si>
+  <si>
+    <t>médica</t>
+  </si>
+  <si>
+    <t>O repórter insultou o ginasta enquanto ele filmava a prova no parque</t>
+  </si>
+  <si>
+    <t>repórter</t>
+  </si>
+  <si>
+    <t>ginasta</t>
+  </si>
+  <si>
+    <t>O André reconheceu o David, quando ele olhava pela janela. </t>
+  </si>
+  <si>
+    <t>O árbitro apoiou o jogador enquanto ele chutava a bola em campo </t>
+  </si>
+  <si>
+    <t>árbitro</t>
+  </si>
+  <si>
+    <t>jogador</t>
+  </si>
+  <si>
+    <t>Os colegas pintaram Léa no camarim mas depois esqueceram ela no palco. </t>
+  </si>
+  <si>
+    <t>colegas</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -623,9 +959,6 @@
     <t>mãe</t>
   </si>
   <si>
-    <t>filha</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -659,47 +992,44 @@
     <t>Emília</t>
   </si>
   <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Lucas humilhou Gustavo e</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> chorou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Gustavo foi humilhado por lucas e </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A irmã da médica comentou que </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> estava cansada. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>O cliente chamava o frentista enquanto </t>
     </r>
     <r>
       <rPr>
@@ -718,113 +1048,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> chorou</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A amiga foi recebida por Maria em </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> casa</t>
-    </r>
-  </si>
-  <si>
-    <t>amiga</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A irmã da médica comentou que </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> estava cansada. </t>
-    </r>
-  </si>
-  <si>
-    <t>irmã</t>
-  </si>
-  <si>
-    <t>médica</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>O cliente chamava o frentista enquanto </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t> pagava a conta no posto</t>
     </r>
-  </si>
-  <si>
-    <t>cliente</t>
-  </si>
-  <si>
-    <t>frentista</t>
   </si>
 </sst>
 </file>
@@ -834,11 +1059,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -857,12 +1083,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -903,7 +1123,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,7 +1145,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF54D5C"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor rgb="FFF54D5C"/>
       </patternFill>
     </fill>
   </fills>
@@ -970,7 +1196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -991,19 +1217,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,7 +1237,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,16 +1245,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1282,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1110,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1361,58 +1599,58 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>41</v>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1422,7 +1660,7 @@
     </row>
     <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
@@ -1431,19 +1669,19 @@
         <v>27</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -1454,29 +1692,29 @@
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="11"/>
     </row>
@@ -1495,7 +1733,803 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/SegundoTesteAlgoritmo.xlsx
+++ b/SegundoTesteAlgoritmo.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>Antecedente </t>
   </si>
@@ -821,235 +819,6 @@
   </si>
   <si>
     <t>Marcela</t>
-  </si>
-  <si>
-    <t> Maria conversava com Ana enquanto ela cozinhava.
-</t>
-  </si>
-  <si>
-    <t> A mãe dá um beijo na filha enquanto ela veste o casaco. </t>
-  </si>
-  <si>
-    <t>Mãe</t>
-  </si>
-  <si>
-    <t>A Emilia acenou para a Teresa quando ela abriu a porta.</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t> A Telma conversava com a Julia enquanto ela cozinhava. </t>
-  </si>
-  <si>
-    <t>Telma</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t> O cliente chamava o frentista enquanto ele pagava a conta no posto</t>
-  </si>
-  <si>
-    <t>frentista</t>
-  </si>
-  <si>
-    <t>A irmã da médica comentou que ela estava cansada. </t>
-  </si>
-  <si>
-    <t>irmã</t>
-  </si>
-  <si>
-    <t>médica</t>
-  </si>
-  <si>
-    <t>O repórter insultou o ginasta enquanto ele filmava a prova no parque</t>
-  </si>
-  <si>
-    <t>repórter</t>
-  </si>
-  <si>
-    <t>ginasta</t>
-  </si>
-  <si>
-    <t>O André reconheceu o David, quando ele olhava pela janela. </t>
-  </si>
-  <si>
-    <t>O árbitro apoiou o jogador enquanto ele chutava a bola em campo </t>
-  </si>
-  <si>
-    <t>árbitro</t>
-  </si>
-  <si>
-    <t>jogador</t>
-  </si>
-  <si>
-    <t>Os colegas pintaram Léa no camarim mas depois esqueceram ela no palco. </t>
-  </si>
-  <si>
-    <t>colegas</t>
-  </si>
-  <si>
-    <t>Léa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Maria conversava com Ana enquanto</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> cozinhava.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A mãe dá um beijo na filha enquanto </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> veste o casaco. </t>
-    </r>
-  </si>
-  <si>
-    <t>mãe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A Emília acenou para a Teresa quando </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> abriu a porta.</t>
-    </r>
-  </si>
-  <si>
-    <t>Emília</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>A irmã da médica comentou que </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ela</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> estava cansada. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>O cliente chamava o frentista enquanto </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ele</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> pagava a conta no posto</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1059,7 +828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1109,21 +878,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1145,13 +901,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF54D5C"/>
-        <bgColor rgb="FFFF3300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor rgb="FFF54D5C"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1196,7 +946,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,26 +999,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1282,7 +1012,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3300"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1348,18 +1078,18 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1715,802 +1445,6 @@
       </c>
       <c r="D24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="37.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="11"/>
     </row>
